--- a/municipal/ENG/Business Sector/Purchase of good and services for resale/Adjara A.R/Khelvachauri.xlsx
+++ b/municipal/ENG/Business Sector/Purchase of good and services for resale/Adjara A.R/Khelvachauri.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BC7BD5-CB93-47DD-988E-EE74C2189D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Khelvachauri" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
@@ -72,7 +73,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -108,11 +108,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -120,33 +135,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{08E77D8A-D760-4E7D-A205-C3361A3F48B0}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{87B152D4-3193-4652-85CB-81536A711E05}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -162,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,9 +223,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,18 +468,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13" style="6" customWidth="1"/>
-    <col min="10" max="256" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.7109375" style="3" customWidth="1"/>
+    <col min="2" max="9" width="8.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="27.5703125" style="1" customWidth="1"/>
     <col min="258" max="265" width="13" style="1" customWidth="1"/>
     <col min="266" max="512" width="9.140625" style="1"/>
@@ -650,26 +670,26 @@
     <col min="16138" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>2014</v>
       </c>
@@ -694,15 +714,18 @@
       <c r="I3" s="9">
         <v>2021</v>
       </c>
+      <c r="J3" s="9">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10">
         <v>67</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>35.299999999999997</v>
       </c>
       <c r="D4" s="10">
@@ -717,17 +740,17 @@
       <c r="G4" s="10">
         <v>38.9</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="12">
         <v>39.5</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="12">
         <v>39.700000000000003</v>
+      </c>
+      <c r="J4" s="12">
+        <v>164.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/municipal/ENG/Business Sector/Purchase of good and services for resale/Adjara A.R/Khelvachauri.xlsx
+++ b/municipal/ENG/Business Sector/Purchase of good and services for resale/Adjara A.R/Khelvachauri.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BC7BD5-CB93-47DD-988E-EE74C2189D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB0534B-BC50-4479-91C4-70A39C53B96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Khelvachauri" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,9 +223,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +258,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,9 +310,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,7 +704,7 @@
     <col min="16138" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -683,12 +717,12 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="8">
         <v>2014</v>
@@ -717,8 +751,11 @@
       <c r="J3" s="9">
         <v>2022</v>
       </c>
+      <c r="K3" s="9">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -748,6 +785,9 @@
       </c>
       <c r="J4" s="12">
         <v>164.1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>161.4</v>
       </c>
     </row>
   </sheetData>
